--- a/DATA_goal/Junction_Flooding_455.xlsx
+++ b/DATA_goal/Junction_Flooding_455.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44786.54861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.13</v>
+        <v>11.26</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.76</v>
+        <v>7.64</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.34</v>
+        <v>3.43</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.46</v>
+        <v>24.62</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.81</v>
+        <v>18.07</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.86</v>
+        <v>8.59</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>2.54</v>
+        <v>25.44</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.4</v>
+        <v>13.96</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.54</v>
+        <v>5.42</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.78</v>
+        <v>7.79</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.97</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.06</v>
+        <v>10.59</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.27</v>
+        <v>2.7</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.9</v>
+        <v>9.02</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.22</v>
+        <v>12.23</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.82</v>
+        <v>8.25</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.27</v>
+        <v>2.68</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.14</v>
+        <v>1.42</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>12.99</v>
+        <v>129.95</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>2.49</v>
+        <v>24.89</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.83</v>
+        <v>8.33</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.57</v>
+        <v>15.72</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.82</v>
+        <v>8.19</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.23</v>
+        <v>2.33</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.41</v>
+        <v>14.06</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.74</v>
+        <v>7.36</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.89</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.79</v>
+        <v>7.88</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.03</v>
+        <v>10.31</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.27</v>
+        <v>2.69</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.28</v>
+        <v>22.83</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.43</v>
+        <v>4.29</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.04</v>
+        <v>10.41</v>
       </c>
     </row>
     <row r="3">
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0.4</v>
+        <v>4.02</v>
       </c>
       <c r="I3" s="4" t="n">
         <v>0</v>
@@ -816,22 +816,22 @@
         <v>0</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.49</v>
       </c>
       <c r="V3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="X3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.26</v>
+        <v>2.61</v>
       </c>
       <c r="AA3" s="4" t="n">
         <v>0</v>
@@ -849,7 +849,7 @@
         <v>0</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0.51</v>
+        <v>5.1</v>
       </c>
       <c r="AG3" s="4" t="n">
         <v>0</v>
@@ -863,103 +863,103 @@
         <v>44786.5625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.63</v>
+        <v>16.32</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.23</v>
+        <v>12.26</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.65</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.55</v>
+        <v>35.54</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.98</v>
+        <v>29.83</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.37</v>
+        <v>13.72</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>4.3</v>
+        <v>42.97</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.98</v>
+        <v>19.77</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.87</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.33</v>
+        <v>13.3</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.44</v>
+        <v>14.39</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.54</v>
+        <v>15.36</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.41</v>
+        <v>4.1</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.28</v>
+        <v>12.77</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.8</v>
+        <v>18.02</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.06</v>
+        <v>10.58</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.15</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.6</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>18.78</v>
+        <v>187.82</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>3.53</v>
+        <v>35.26</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.18</v>
+        <v>11.81</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.35</v>
+        <v>23.53</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.25</v>
+        <v>12.49</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.2</v>
+        <v>2.01</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.18</v>
+        <v>21.81</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.04</v>
+        <v>10.42</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.91</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.08</v>
+        <v>10.76</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.5</v>
+        <v>14.98</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>3.87</v>
+        <v>38.66</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.67</v>
+        <v>6.73</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.47</v>
+        <v>14.7</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44786.56944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.67</v>
+        <v>6.7</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.5</v>
+        <v>5.04</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.32</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.46</v>
+        <v>14.64</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.25</v>
+        <v>12.47</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.58</v>
+        <v>5.82</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>2.33</v>
+        <v>23.29</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.36</v>
+        <v>3.59</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.55</v>
+        <v>5.49</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.6</v>
+        <v>5.99</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.64</v>
+        <v>6.41</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.17</v>
+        <v>1.69</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.52</v>
+        <v>5.25</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.74</v>
+        <v>7.43</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.44</v>
+        <v>4.35</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.31</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>7.31</v>
+        <v>73.14</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.47</v>
+        <v>14.69</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.49</v>
+        <v>4.88</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.97</v>
+        <v>9.73</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.51</v>
+        <v>5.11</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.12</v>
+        <v>11.22</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.43</v>
+        <v>4.29</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.38</v>
+        <v>3.76</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.44</v>
+        <v>4.44</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.62</v>
+        <v>6.16</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>2.15</v>
+        <v>21.5</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.28</v>
+        <v>2.78</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.6</v>
+        <v>6.03</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_455.xlsx
+++ b/DATA_goal/Junction_Flooding_455.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,38 +444,38 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44786.54861111111</v>
+        <v>45136.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>11.26</v>
+        <v>5.237</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>7.64</v>
+        <v>1.607</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.43</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>24.62</v>
+        <v>2.478</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>18.07</v>
+        <v>3.053</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>8.59</v>
+        <v>2.519</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>25.44</v>
+        <v>5.488</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>13.96</v>
+        <v>1.554</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>5.42</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>7.79</v>
+        <v>4.022</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>9.710000000000001</v>
+        <v>1.069</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>10.59</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.7</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>9.02</v>
+        <v>0.87</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>12.23</v>
+        <v>2.749</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>8.25</v>
+        <v>1.106</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.68</v>
+        <v>0.51</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.42</v>
+        <v>0.063</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>129.95</v>
+        <v>20.094</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>24.89</v>
+        <v>4.803</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>8.33</v>
+        <v>2.372</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>15.72</v>
+        <v>3.891</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>8.19</v>
+        <v>1.034</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.33</v>
+        <v>0.249</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>14.06</v>
+        <v>1.98</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>7.36</v>
+        <v>1.154</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>6.89</v>
+        <v>0.674</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>7.88</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>10.31</v>
+        <v>3.129</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.69</v>
+        <v>2.866</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>22.83</v>
+        <v>3.128</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>4.29</v>
+        <v>0.446</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>10.41</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44786.55555555555</v>
+        <v>45136.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0</v>
+        <v>5.495</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0</v>
+        <v>3.344</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0</v>
+        <v>8.061999999999999</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0</v>
+        <v>7.348</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0</v>
+        <v>3.882</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>4.02</v>
+        <v>10.821</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0</v>
+        <v>4.539</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0</v>
+        <v>2.258</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0</v>
+        <v>4.397</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0</v>
+        <v>3.371</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0</v>
+        <v>3.292</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0</v>
+        <v>1.098</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0</v>
+        <v>2.877</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0</v>
+        <v>5.177</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0</v>
+        <v>2.541</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0</v>
+        <v>0.408</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0</v>
+        <v>0.034</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>0</v>
+        <v>43.724</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0.49</v>
+        <v>9.314</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0</v>
+        <v>3.457</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.1</v>
+        <v>6.484</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0</v>
+        <v>2.988</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.5</v>
+        <v>0.444</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.61</v>
+        <v>5.468</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0</v>
+        <v>2.668</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0</v>
+        <v>2.072</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0</v>
+        <v>2.541</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0</v>
+        <v>4.569</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0</v>
+        <v>1.133</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>5.1</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0</v>
+        <v>1.485</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0</v>
+        <v>3.555</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44786.5625</v>
+        <v>45136.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>16.32</v>
+        <v>15.15</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>12.26</v>
+        <v>10.937</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.65</v>
+        <v>0.349</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>35.54</v>
+        <v>30.464</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>29.83</v>
+        <v>25.666</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>13.72</v>
+        <v>11.698</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>42.97</v>
+        <v>39.661</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>19.77</v>
+        <v>16.962</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>8.699999999999999</v>
+        <v>7.796</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>13.3</v>
+        <v>12.262</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>14.39</v>
+        <v>12.356</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>15.36</v>
+        <v>12.815</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>4.1</v>
+        <v>3.627</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>12.77</v>
+        <v>10.95</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>18.02</v>
+        <v>16.421</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>10.58</v>
+        <v>9.154999999999999</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.15</v>
+        <v>0.41</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.6</v>
+        <v>0.332</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>187.82</v>
+        <v>164.077</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>35.26</v>
+        <v>31.411</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>11.81</v>
+        <v>10.634</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>23.53</v>
+        <v>21.371</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>12.49</v>
+        <v>10.968</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.01</v>
+        <v>1.479</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>21.81</v>
+        <v>20.071</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>10.42</v>
+        <v>9.156000000000001</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>9.109999999999999</v>
+        <v>7.835</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>10.76</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>14.98</v>
+        <v>13.646</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.716</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>38.66</v>
+        <v>35.501</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>6.73</v>
+        <v>5.733</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>14.7</v>
+        <v>12.787</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44786.56944444445</v>
+        <v>45136.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>6.7</v>
+        <v>22.16</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>5.04</v>
+        <v>16.34</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.32</v>
+        <v>0.61</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>14.64</v>
+        <v>46.37</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>12.47</v>
+        <v>38.7</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>5.82</v>
+        <v>17.3</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>23.29</v>
+        <v>64.75</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>8.119999999999999</v>
+        <v>25.79</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>3.59</v>
+        <v>11.75</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>5.49</v>
+        <v>17.96</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>5.99</v>
+        <v>18.73</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>6.41</v>
+        <v>19.58</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.69</v>
+        <v>5.44</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>5.25</v>
+        <v>16.68</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>7.43</v>
+        <v>24.46</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>4.35</v>
+        <v>13.87</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.42</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.31</v>
+        <v>0.55</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>73.14</v>
+        <v>250.02</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>14.69</v>
+        <v>47.29</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>4.88</v>
+        <v>15.78</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>9.73</v>
+        <v>32.1</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>5.11</v>
+        <v>16.65</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>2.22</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>11.22</v>
+        <v>31.92</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>4.29</v>
+        <v>13.77</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>3.76</v>
+        <v>11.93</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>4.44</v>
+        <v>14.09</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>6.16</v>
+        <v>20.16</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.52</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>21.5</v>
+        <v>58.58</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.78</v>
+        <v>8.75</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>6.03</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44786.57637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>5.24</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>10.51</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>21.54</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>4.88</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>2.13</v>
+        <v>19.35</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_455.xlsx
+++ b/DATA_goal/Junction_Flooding_455.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,7 +443,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
@@ -456,9 +456,9 @@
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
@@ -468,9 +468,9 @@
     <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45136.50694444445</v>
+        <v>44786.54861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>5.237</v>
+        <v>11.256</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.607</v>
+        <v>7.644</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>3.425</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.478</v>
+        <v>24.615</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.053</v>
+        <v>18.068</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>2.519</v>
+        <v>8.586</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>5.488</v>
+        <v>25.443</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.554</v>
+        <v>13.961</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.9409999999999999</v>
+        <v>5.416</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>4.022</v>
+        <v>7.792</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.069</v>
+        <v>9.715</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.9379999999999999</v>
+        <v>10.589</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.6929999999999999</v>
+        <v>2.697</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.87</v>
+        <v>9.023</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.749</v>
+        <v>12.231</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.106</v>
+        <v>8.247999999999999</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.51</v>
+        <v>2.68</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.063</v>
+        <v>1.423</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>20.094</v>
+        <v>129.948</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>4.803</v>
+        <v>24.892</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>2.372</v>
+        <v>8.329000000000001</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.891</v>
+        <v>15.72</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.034</v>
+        <v>8.193</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.249</v>
+        <v>2.33</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.98</v>
+        <v>14.063</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.154</v>
+        <v>7.357</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.674</v>
+        <v>6.887</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>7.883</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>3.129</v>
+        <v>10.309</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.866</v>
+        <v>2.695</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>3.128</v>
+        <v>22.828</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.446</v>
+        <v>4.294</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.43</v>
+        <v>10.412</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45136.51388888889</v>
+        <v>44786.55555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>5.495</v>
+        <v>0</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>3.344</v>
+        <v>0</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>8.061999999999999</v>
+        <v>0</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>7.348</v>
+        <v>0</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>3.882</v>
+        <v>0</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>10.821</v>
+        <v>4.024</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>4.539</v>
+        <v>0</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>2.258</v>
+        <v>0</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>4.397</v>
+        <v>0</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>3.371</v>
+        <v>0</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>3.292</v>
+        <v>0</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.098</v>
+        <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>2.877</v>
+        <v>0</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>5.177</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>2.541</v>
+        <v>0</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.408</v>
+        <v>0</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.034</v>
+        <v>0</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>43.724</v>
+        <v>0</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>9.314</v>
+        <v>0.486</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>3.457</v>
+        <v>0</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>6.484</v>
+        <v>0.099</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>2.988</v>
+        <v>0</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.444</v>
+        <v>0.498</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>5.468</v>
+        <v>2.607</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>2.668</v>
+        <v>0</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>2.072</v>
+        <v>0</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>2.541</v>
+        <v>0</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>4.569</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.133</v>
+        <v>0</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>8.970000000000001</v>
+        <v>5.103</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.485</v>
+        <v>0</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>3.555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45136.52083333334</v>
+        <v>44786.5625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>15.15</v>
+        <v>16.316</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>10.937</v>
+        <v>12.264</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.349</v>
+        <v>0.647</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>30.464</v>
+        <v>35.54</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>25.666</v>
+        <v>29.833</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>11.698</v>
+        <v>13.716</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>39.661</v>
+        <v>42.969</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>16.962</v>
+        <v>19.765</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>7.796</v>
+        <v>8.699</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>12.262</v>
+        <v>13.303</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>12.356</v>
+        <v>14.393</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>12.815</v>
+        <v>15.356</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.627</v>
+        <v>4.096</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>10.95</v>
+        <v>12.769</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>16.421</v>
+        <v>18.025</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>9.154999999999999</v>
+        <v>10.578</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.41</v>
+        <v>0.153</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.332</v>
+        <v>0.603</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>164.077</v>
+        <v>187.819</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>31.411</v>
+        <v>35.257</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>10.634</v>
+        <v>11.813</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>21.371</v>
+        <v>23.528</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>10.968</v>
+        <v>12.492</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.479</v>
+        <v>2.005</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>20.071</v>
+        <v>21.811</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>9.156000000000001</v>
+        <v>10.415</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>7.835</v>
+        <v>9.112</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>9.289999999999999</v>
+        <v>10.757</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>13.646</v>
+        <v>14.978</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.716</v>
+        <v>0.067</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>35.501</v>
+        <v>38.662</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>5.733</v>
+        <v>6.731</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>12.787</v>
+        <v>14.7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45136.52777777778</v>
+        <v>44786.56944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>22.16</v>
+        <v>6.703</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>16.34</v>
+        <v>5.042</v>
       </c>
       <c r="D5" s="4" t="n">
+        <v>0.322</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>14.643</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>12.47</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>5.822</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>23.288</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>8.122999999999999</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>3.586</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>5.493</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>5.988</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>6.414</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>1.694</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>5.248</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>7.427</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>4.353</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>73.136</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>14.688</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>4.876</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>9.733000000000001</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.9409999999999999</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>11.222</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>4.286</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>3.759</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>6.162</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>21.495</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>2.779</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>6.029</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44786.57637731481</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>10.51</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="N6" s="4" t="n">
         <v>0.61</v>
       </c>
-      <c r="E5" s="4" t="n">
-        <v>46.37</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>38.7</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>64.75</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>25.79</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>17.96</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>18.73</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>19.58</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>5.44</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>16.68</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>24.46</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>13.87</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>250.02</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>47.29</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>15.78</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>32.1</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>16.65</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>31.92</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>13.77</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>14.09</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>20.16</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>58.58</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>19.35</v>
+      <c r="O6" s="4" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>21.54</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>2.13</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_455.xlsx
+++ b/DATA_goal/Junction_Flooding_455.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,7 +443,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
@@ -456,9 +456,9 @@
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
@@ -468,9 +468,9 @@
     <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44786.54861111111</v>
+        <v>45136.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>11.256</v>
+        <v>5.237</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>7.644</v>
+        <v>1.607</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.425</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>24.615</v>
+        <v>2.478</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>18.068</v>
+        <v>3.053</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>8.586</v>
+        <v>2.519</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>25.443</v>
+        <v>5.488</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>13.961</v>
+        <v>1.554</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>5.416</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>7.792</v>
+        <v>4.022</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>9.715</v>
+        <v>1.069</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>10.589</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.697</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>9.023</v>
+        <v>0.87</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>12.231</v>
+        <v>2.749</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>8.247999999999999</v>
+        <v>1.106</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.68</v>
+        <v>0.51</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.423</v>
+        <v>0.063</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>129.948</v>
+        <v>20.094</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>24.892</v>
+        <v>4.803</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>8.329000000000001</v>
+        <v>2.372</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>15.72</v>
+        <v>3.891</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>8.193</v>
+        <v>1.034</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.33</v>
+        <v>0.249</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>14.063</v>
+        <v>1.98</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>7.357</v>
+        <v>1.154</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>6.887</v>
+        <v>0.674</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>7.883</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>10.309</v>
+        <v>3.129</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.695</v>
+        <v>2.866</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>22.828</v>
+        <v>3.128</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>4.294</v>
+        <v>0.446</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>10.412</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44786.55555555555</v>
+        <v>45136.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0</v>
+        <v>5.495</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0</v>
+        <v>3.344</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0</v>
+        <v>8.061999999999999</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0</v>
+        <v>7.348</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0</v>
+        <v>3.882</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>4.024</v>
+        <v>10.821</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0</v>
+        <v>4.539</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0</v>
+        <v>2.258</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0</v>
+        <v>4.397</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0</v>
+        <v>3.371</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0</v>
+        <v>3.292</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0</v>
+        <v>1.098</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0</v>
+        <v>2.877</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0</v>
+        <v>5.177</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0</v>
+        <v>2.541</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0</v>
+        <v>0.408</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0</v>
+        <v>0.034</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>0</v>
+        <v>43.724</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0.486</v>
+        <v>9.314</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0</v>
+        <v>3.457</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.099</v>
+        <v>6.484</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0</v>
+        <v>2.988</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.498</v>
+        <v>0.444</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.607</v>
+        <v>5.468</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0</v>
+        <v>2.668</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0</v>
+        <v>2.072</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0</v>
+        <v>2.541</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0</v>
+        <v>4.569</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0</v>
+        <v>1.133</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>5.103</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0</v>
+        <v>1.485</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0</v>
+        <v>3.555</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44786.5625</v>
+        <v>45136.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>16.316</v>
+        <v>15.15</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>12.264</v>
+        <v>10.937</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.647</v>
+        <v>0.349</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>35.54</v>
+        <v>30.464</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>29.833</v>
+        <v>25.666</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>13.716</v>
+        <v>11.698</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>42.969</v>
+        <v>39.661</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>19.765</v>
+        <v>16.962</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>8.699</v>
+        <v>7.796</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>13.303</v>
+        <v>12.262</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>14.393</v>
+        <v>12.356</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>15.356</v>
+        <v>12.815</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>4.096</v>
+        <v>3.627</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>12.769</v>
+        <v>10.95</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>18.025</v>
+        <v>16.421</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>10.578</v>
+        <v>9.154999999999999</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.153</v>
+        <v>0.41</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.603</v>
+        <v>0.332</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>187.819</v>
+        <v>164.077</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>35.257</v>
+        <v>31.411</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>11.813</v>
+        <v>10.634</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>23.528</v>
+        <v>21.371</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>12.492</v>
+        <v>10.968</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.005</v>
+        <v>1.479</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>21.811</v>
+        <v>20.071</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>10.415</v>
+        <v>9.156000000000001</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>9.112</v>
+        <v>7.835</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>10.757</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>14.978</v>
+        <v>13.646</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.067</v>
+        <v>0.716</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>38.662</v>
+        <v>35.501</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>6.731</v>
+        <v>5.733</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>14.7</v>
+        <v>12.787</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44786.56944444445</v>
+        <v>45136.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>6.703</v>
+        <v>22.16</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>5.042</v>
+        <v>16.34</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.322</v>
+        <v>0.61</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>14.643</v>
+        <v>46.37</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>12.47</v>
+        <v>38.7</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>5.822</v>
+        <v>17.3</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>23.288</v>
+        <v>64.75</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>8.122999999999999</v>
+        <v>25.79</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>3.586</v>
+        <v>11.75</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>5.493</v>
+        <v>17.96</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>5.988</v>
+        <v>18.73</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>6.414</v>
+        <v>19.58</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.694</v>
+        <v>5.44</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>5.248</v>
+        <v>16.68</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>7.427</v>
+        <v>24.46</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>4.353</v>
+        <v>13.87</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.067</v>
+        <v>0.42</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.315</v>
+        <v>0.55</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>73.136</v>
+        <v>250.02</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>14.688</v>
+        <v>47.29</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>4.876</v>
+        <v>15.78</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>9.733000000000001</v>
+        <v>32.1</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>5.11</v>
+        <v>16.65</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.9409999999999999</v>
+        <v>2.22</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>11.222</v>
+        <v>31.92</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>4.286</v>
+        <v>13.77</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>3.759</v>
+        <v>11.93</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>4.44</v>
+        <v>14.09</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>6.162</v>
+        <v>20.16</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.068</v>
+        <v>0.52</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>21.495</v>
+        <v>58.58</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.779</v>
+        <v>8.75</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>6.029</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44786.57637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>5.24</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>10.51</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>21.54</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>4.88</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>2.13</v>
+        <v>19.35</v>
       </c>
     </row>
   </sheetData>
